--- a/output/chunk_15_20-02-2024.xlsx
+++ b/output/chunk_15_20-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,20 +1428,16 @@
       <c r="B15" t="n">
         <v>1476663</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>166416909189</t>
-        </is>
+      <c r="C15" t="n">
+        <v>166416909189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/OTAwWDkwMA==/z/-HgAAOSwjoVlRlxz/$_12.PNG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>261033</t>
-        </is>
+      <c r="E15" t="n">
+        <v>261033</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1482,12 +1478,242 @@
           <t>Portable Line Spooler Max, 1476663, 5.50 x 6.30 x 0.85 Inches, NEW</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
+      <c r="Y15" t="n">
+        <v>35</v>
       </c>
       <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1476731</v>
+      </c>
+      <c r="C16" t="n">
+        <v>404473607884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTMyN1gxNjAw/z/EMUAAOSwNUhk9XYJ/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>33717</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Beleuchtung:Blinkleuchten</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Mondeo IV Turnier</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>52</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>FÜR FORD MONDEO 2007-2010 Seitenblinker Kotflügel Blinkleuchte Links</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>[{'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2010/07-2015/01', 'Engine': '1596 ccm, 88 KW, 120 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2015/01', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2014/12', 'Engine': '1997 ccm, 100 KW, 136 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 SCTi', 'Production Period': '2010/03-2015/01', 'Engine': '1999 ccm, 149 KW, 203 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 EcoBoost', 'Production Period': '2010/07-2015/01', 'Engine': '1999 ccm, 176 KW, 240 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2010/07-2015/01', 'Engine': '2179 ccm, 147 KW, 200 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2015/01', 'Engine': '2521 ccm, 162 KW, 220 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2015/01', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2015/01', 'Engine': '2521 ccm, 162 KW, 220 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2012/12', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2010/07-2015/01', 'Engine': '1596 ccm, 88 KW, 120 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2010/12', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2012/12', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2012/12', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2014/12', 'Engine': '1997 ccm, 100 KW, 136 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2012/12', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 SCTi', 'Production Period': '2010/03-2015/01', 'Engine': '1999 ccm, 149 KW, 203 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 EcoBoost', 'Production Period': '2010/07-2015/01', 'Engine': '1999 ccm, 176 KW, 240 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2010/07-2015/01', 'Engine': '2179 ccm, 147 KW, 200 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2012/12', 'Engine': '2521 ccm, 162 KW, 220 PS'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1476806</v>
+      </c>
+      <c r="C17" t="n">
+        <v>255759927358</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/Nzk1WDE1MDA=/z/78gAAOSwU35lxMVL/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>262240</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Transmission &amp; Drivetrain:Clutch Parts &amp; Kits:Clutch Hydraulics</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mazda</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>BP4K41400B,BP4K41400C,BP4K41400D,BP4K41400E,30681422</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2181-CB4</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Febest</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Clutch Master Cylinder</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>2004</v>
+      </c>
+      <c r="W17" t="n">
+        <v>99</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Clutch Master Cylinder-i, Std Trans Febest 2181-CB4</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>[{'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Grand Touring Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS-SKY Sedan 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Hatchback 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'I Touring Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Grand Touring Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS-SKY Sedan 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Hatchback 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'I Touring Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Grand Touring Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'I Touring Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2011', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Sport GX Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Grand Touring Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'I Touring Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '5', 'Trim': 'GS Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Sport Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 1999CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '5', 'Trim': 'GS Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Sport Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '5', 'Trim': 'GS Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Sport Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '3', 'Trim': 'Mazdaspeed Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Turbocharged'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Sport Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Touring Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Sport Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Mazda', 'Model': '5', 'Trim': 'Touring Mini Passenger Van 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'SP23 Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Mazda', 'Model': '3', 'Trim': 'SP23 Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Hatchback 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GS Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GT Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'GX Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'i Sedan 4-Door', 'Engine': '2.0L 2000CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Hatchback 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Mazda', 'Model': '3', 'Trim': 'S Sedan 4-Door', 'Engine': '2.3L 2260CC l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1476730</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>155856596272</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTEyWDUxMg==/z/EFsAAOSwadFlTmFQ/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>172517</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Beleuchtung:Lampen &amp; LED-Leuchten</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Mondeo IV Turnier</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>BLINKLEUCHTENSATZ FÜR FORD MONDEO/IV/Turnier UKBA/UKBB/AZBC/AZBA/UFBB 2.0L 4cyl</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>56.65</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>[{'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 TDCi', 'Production Period': '2011/02-2015/01', 'Engine': '1560 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 EcoBoost', 'Production Period': '2011/02-2015/01', 'Engine': '1596 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2010/07-2015/01', 'Engine': '1596 ccm, 88 KW, 120 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2015/01', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2014/12', 'Engine': '1997 ccm, 100 KW, 136 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 SCTi', 'Production Period': '2010/03-2015/01', 'Engine': '1999 ccm, 149 KW, 203 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.0 EcoBoost', 'Production Period': '2010/07-2015/01', 'Engine': '1999 ccm, 176 KW, 240 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2010/07-2015/01', 'Engine': '2179 ccm, 147 KW, 200 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2015/01', 'Engine': '2521 ccm, 162 KW, 220 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 TDCi', 'Production Period': '2010/12-2015/01', 'Engine': '1560 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 EcoBoost', 'Production Period': '2010/11-2015/01', 'Engine': '1596 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2010/03-2015/01', 'Engine': '1596 ccm, 88 KW, 120 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2015/01', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2015/01', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2008/08-2014/12', 'Engine': '1997 ccm, 100 KW, 136 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 SCTi', 'Production Period': '2010/03-2015/01', 'Engine': '1999 ccm, 149 KW, 203 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.0 EcoBoost', 'Production Period': '2010/03-2014/09', 'Engine': '1999 ccm, 176 KW, 240 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2010/10-2015/01', 'Engine': '2179 ccm, 147 KW, 200 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Stufenheck', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2015/01', 'Engine': '2521 ccm, 162 KW, 220 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 TDCi', 'Production Period': '2011/02-2015/01', 'Engine': '1560 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 EcoBoost', 'Production Period': '2011/02-2015/01', 'Engine': '1596 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2012/12', 'Engine': '1596 ccm, 81 KW, 110 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2010/07-2015/01', 'Engine': '1596 ccm, 88 KW, 120 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.6 Ti', 'Production Period': '2007/03-2010/12', 'Engine': '1596 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/03-2012/12', 'Engine': '1753 ccm, 74 KW, 100 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '1.8 TDCi', 'Production Period': '2007/06-2012/12', 'Engine': '1753 ccm, 92 KW, 125 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2014/12', 'Engine': '1997 ccm, 100 KW, 136 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2015/01', 'Engine': '1997 ccm, 103 KW, 140 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2010/03-2015/01', 'Engine': '1997 ccm, 120 KW, 163 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/11-2015/01', 'Engine': '1997 ccm, 85 KW, 115 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 TDCi', 'Production Period': '2007/03-2012/12', 'Engine': '1997 ccm, 96 KW, 130 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 LPG', 'Production Period': '2009/07-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0', 'Production Period': '2007/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 FlexiFuel', 'Production Period': '2009/03-2015/01', 'Engine': '1999 ccm, 107 KW, 145 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 SCTi', 'Production Period': '2010/03-2015/01', 'Engine': '1999 ccm, 149 KW, 203 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.0 EcoBoost', 'Production Period': '2010/07-2015/01', 'Engine': '1999 ccm, 176 KW, 240 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2008/03-2010/10', 'Engine': '2179 ccm, 129 KW, 175 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.2 TDCi', 'Production Period': '2010/07-2015/01', 'Engine': '2179 ccm, 147 KW, 200 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.3', 'Production Period': '2007/07-2015/01', 'Engine': '2261 ccm, 118 KW, 160 PS'}, {'Make': 'Ford', 'Model': 'Mondeo IV Turnier', 'Platform': 'BA7', 'Type': '2.5', 'Production Period': '2007/03-2012/12', 'Engine': '2521 ccm, 162 KW, 220 PS'}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
